--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4820"/>
+  <dimension ref="A1:C4822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82335,7 +82335,7 @@
       </c>
       <c r="C4818" t="inlineStr">
         <is>
-          <t>51364.82509</t>
+          <t>2173.28036</t>
         </is>
       </c>
     </row>
@@ -82352,7 +82352,7 @@
       </c>
       <c r="C4819" t="inlineStr">
         <is>
-          <t>61705.54335</t>
+          <t>927.30470</t>
         </is>
       </c>
     </row>
@@ -82370,6 +82370,40 @@
       <c r="C4820" t="inlineStr">
         <is>
           <t>53283.17160</t>
+        </is>
+      </c>
+    </row>
+    <row r="4821">
+      <c r="A4821" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B4821" t="inlineStr">
+        <is>
+          <t>1752883200</t>
+        </is>
+      </c>
+      <c r="C4821" t="inlineStr">
+        <is>
+          <t>13251.35637</t>
+        </is>
+      </c>
+    </row>
+    <row r="4822">
+      <c r="A4822" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B4822" t="inlineStr">
+        <is>
+          <t>1752969600</t>
+        </is>
+      </c>
+      <c r="C4822" t="inlineStr">
+        <is>
+          <t>13523.49137</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4822"/>
+  <dimension ref="A1:C4823"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82318,7 +82318,7 @@
       </c>
       <c r="C4817" t="inlineStr">
         <is>
-          <t>218.41304</t>
+          <t>85294.59786</t>
         </is>
       </c>
     </row>
@@ -82335,7 +82335,7 @@
       </c>
       <c r="C4818" t="inlineStr">
         <is>
-          <t>2173.28036</t>
+          <t>72304.29262</t>
         </is>
       </c>
     </row>
@@ -82352,7 +82352,7 @@
       </c>
       <c r="C4819" t="inlineStr">
         <is>
-          <t>927.30470</t>
+          <t>82616.88135</t>
         </is>
       </c>
     </row>
@@ -82369,7 +82369,7 @@
       </c>
       <c r="C4820" t="inlineStr">
         <is>
-          <t>53283.17160</t>
+          <t>67980.63923</t>
         </is>
       </c>
     </row>
@@ -82386,7 +82386,7 @@
       </c>
       <c r="C4821" t="inlineStr">
         <is>
-          <t>13251.35637</t>
+          <t>22263.94856</t>
         </is>
       </c>
     </row>
@@ -82403,7 +82403,24 @@
       </c>
       <c r="C4822" t="inlineStr">
         <is>
-          <t>13523.49137</t>
+          <t>23262.81848</t>
+        </is>
+      </c>
+    </row>
+    <row r="4823">
+      <c r="A4823" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="B4823" t="inlineStr">
+        <is>
+          <t>1753056000</t>
+        </is>
+      </c>
+      <c r="C4823" t="inlineStr">
+        <is>
+          <t>53705.22880</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4823"/>
+  <dimension ref="A1:C4828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82386,7 +82386,7 @@
       </c>
       <c r="C4821" t="inlineStr">
         <is>
-          <t>22263.94856</t>
+          <t>594.67372</t>
         </is>
       </c>
     </row>
@@ -82420,7 +82420,92 @@
       </c>
       <c r="C4823" t="inlineStr">
         <is>
-          <t>53705.22880</t>
+          <t>305.76273</t>
+        </is>
+      </c>
+    </row>
+    <row r="4824">
+      <c r="A4824" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B4824" t="inlineStr">
+        <is>
+          <t>1753142400</t>
+        </is>
+      </c>
+      <c r="C4824" t="inlineStr">
+        <is>
+          <t>2073.37664</t>
+        </is>
+      </c>
+    </row>
+    <row r="4825">
+      <c r="A4825" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B4825" t="inlineStr">
+        <is>
+          <t>1753228800</t>
+        </is>
+      </c>
+      <c r="C4825" t="inlineStr">
+        <is>
+          <t>8313.64380</t>
+        </is>
+      </c>
+    </row>
+    <row r="4826">
+      <c r="A4826" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B4826" t="inlineStr">
+        <is>
+          <t>1753315200</t>
+        </is>
+      </c>
+      <c r="C4826" t="inlineStr">
+        <is>
+          <t>33367.10245</t>
+        </is>
+      </c>
+    </row>
+    <row r="4827">
+      <c r="A4827" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="B4827" t="inlineStr">
+        <is>
+          <t>1753401600</t>
+        </is>
+      </c>
+      <c r="C4827" t="inlineStr">
+        <is>
+          <t>72375.26257</t>
+        </is>
+      </c>
+    </row>
+    <row r="4828">
+      <c r="A4828" t="inlineStr">
+        <is>
+          <t>2025-07-26</t>
+        </is>
+      </c>
+      <c r="B4828" t="inlineStr">
+        <is>
+          <t>1753488000</t>
+        </is>
+      </c>
+      <c r="C4828" t="inlineStr">
+        <is>
+          <t>21003.72670</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4828"/>
+  <dimension ref="A1:C4829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82471,7 +82471,7 @@
       </c>
       <c r="C4826" t="inlineStr">
         <is>
-          <t>33367.10245</t>
+          <t>814.33690</t>
         </is>
       </c>
     </row>
@@ -82506,6 +82506,23 @@
       <c r="C4828" t="inlineStr">
         <is>
           <t>21003.72670</t>
+        </is>
+      </c>
+    </row>
+    <row r="4829">
+      <c r="A4829" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B4829" t="inlineStr">
+        <is>
+          <t>1753574400</t>
+        </is>
+      </c>
+      <c r="C4829" t="inlineStr">
+        <is>
+          <t>12981.93106</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4829"/>
+  <dimension ref="A1:C4830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82437,7 +82437,7 @@
       </c>
       <c r="C4824" t="inlineStr">
         <is>
-          <t>2073.37664</t>
+          <t>56805.67481</t>
         </is>
       </c>
     </row>
@@ -82454,7 +82454,7 @@
       </c>
       <c r="C4825" t="inlineStr">
         <is>
-          <t>8313.64380</t>
+          <t>51364.03399</t>
         </is>
       </c>
     </row>
@@ -82471,7 +82471,7 @@
       </c>
       <c r="C4826" t="inlineStr">
         <is>
-          <t>814.33690</t>
+          <t>41706.81689</t>
         </is>
       </c>
     </row>
@@ -82488,7 +82488,7 @@
       </c>
       <c r="C4827" t="inlineStr">
         <is>
-          <t>72375.26257</t>
+          <t>91668.81851</t>
         </is>
       </c>
     </row>
@@ -82505,7 +82505,7 @@
       </c>
       <c r="C4828" t="inlineStr">
         <is>
-          <t>21003.72670</t>
+          <t>27626.82214</t>
         </is>
       </c>
     </row>
@@ -82522,7 +82522,24 @@
       </c>
       <c r="C4829" t="inlineStr">
         <is>
-          <t>12981.93106</t>
+          <t>17254.67828</t>
+        </is>
+      </c>
+    </row>
+    <row r="4830">
+      <c r="A4830" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="B4830" t="inlineStr">
+        <is>
+          <t>1753660800</t>
+        </is>
+      </c>
+      <c r="C4830" t="inlineStr">
+        <is>
+          <t>49636.65087</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4830"/>
+  <dimension ref="A1:C4831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82505,7 +82505,7 @@
       </c>
       <c r="C4828" t="inlineStr">
         <is>
-          <t>27626.82214</t>
+          <t>2210.20093</t>
         </is>
       </c>
     </row>
@@ -82540,6 +82540,23 @@
       <c r="C4830" t="inlineStr">
         <is>
           <t>49636.65087</t>
+        </is>
+      </c>
+    </row>
+    <row r="4831">
+      <c r="A4831" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="B4831" t="inlineStr">
+        <is>
+          <t>1753747200</t>
+        </is>
+      </c>
+      <c r="C4831" t="inlineStr">
+        <is>
+          <t>27665.72448</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4831"/>
+  <dimension ref="A1:C4832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82522,7 +82522,7 @@
       </c>
       <c r="C4829" t="inlineStr">
         <is>
-          <t>17254.67828</t>
+          <t>1316.51772</t>
         </is>
       </c>
     </row>
@@ -82557,6 +82557,23 @@
       <c r="C4831" t="inlineStr">
         <is>
           <t>27665.72448</t>
+        </is>
+      </c>
+    </row>
+    <row r="4832">
+      <c r="A4832" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="B4832" t="inlineStr">
+        <is>
+          <t>1753833600</t>
+        </is>
+      </c>
+      <c r="C4832" t="inlineStr">
+        <is>
+          <t>40238.70971</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4832"/>
+  <dimension ref="A1:C4833"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82539,7 +82539,7 @@
       </c>
       <c r="C4830" t="inlineStr">
         <is>
-          <t>49636.65087</t>
+          <t>516.30221</t>
         </is>
       </c>
     </row>
@@ -82574,6 +82574,23 @@
       <c r="C4832" t="inlineStr">
         <is>
           <t>40238.70971</t>
+        </is>
+      </c>
+    </row>
+    <row r="4833">
+      <c r="A4833" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B4833" t="inlineStr">
+        <is>
+          <t>1753920000</t>
+        </is>
+      </c>
+      <c r="C4833" t="inlineStr">
+        <is>
+          <t>33967.06323</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4833"/>
+  <dimension ref="A1:C4834"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82556,7 +82556,7 @@
       </c>
       <c r="C4831" t="inlineStr">
         <is>
-          <t>27665.72448</t>
+          <t>2459.54590</t>
         </is>
       </c>
     </row>
@@ -82590,7 +82590,24 @@
       </c>
       <c r="C4833" t="inlineStr">
         <is>
-          <t>33967.06323</t>
+          <t>34217.06323</t>
+        </is>
+      </c>
+    </row>
+    <row r="4834">
+      <c r="A4834" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B4834" t="inlineStr">
+        <is>
+          <t>1754006400</t>
+        </is>
+      </c>
+      <c r="C4834" t="inlineStr">
+        <is>
+          <t>54634.27044</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4834"/>
+  <dimension ref="A1:C4835"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82573,7 +82573,7 @@
       </c>
       <c r="C4832" t="inlineStr">
         <is>
-          <t>40238.70971</t>
+          <t>14.98701</t>
         </is>
       </c>
     </row>
@@ -82608,6 +82608,23 @@
       <c r="C4834" t="inlineStr">
         <is>
           <t>54634.27044</t>
+        </is>
+      </c>
+    </row>
+    <row r="4835">
+      <c r="A4835" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="B4835" t="inlineStr">
+        <is>
+          <t>1754092800</t>
+        </is>
+      </c>
+      <c r="C4835" t="inlineStr">
+        <is>
+          <t>13235.71792</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4835"/>
+  <dimension ref="A1:C4836"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82590,7 +82590,7 @@
       </c>
       <c r="C4833" t="inlineStr">
         <is>
-          <t>34217.06323</t>
+          <t>336.88684</t>
         </is>
       </c>
     </row>
@@ -82625,6 +82625,23 @@
       <c r="C4835" t="inlineStr">
         <is>
           <t>13235.71792</t>
+        </is>
+      </c>
+    </row>
+    <row r="4836">
+      <c r="A4836" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="B4836" t="inlineStr">
+        <is>
+          <t>1754179200</t>
+        </is>
+      </c>
+      <c r="C4836" t="inlineStr">
+        <is>
+          <t>14787.76641</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4836"/>
+  <dimension ref="A1:C4838"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82573,7 +82573,7 @@
       </c>
       <c r="C4832" t="inlineStr">
         <is>
-          <t>14.98701</t>
+          <t>47860.89674</t>
         </is>
       </c>
     </row>
@@ -82590,7 +82590,7 @@
       </c>
       <c r="C4833" t="inlineStr">
         <is>
-          <t>336.88684</t>
+          <t>45383.91080</t>
         </is>
       </c>
     </row>
@@ -82607,7 +82607,7 @@
       </c>
       <c r="C4834" t="inlineStr">
         <is>
-          <t>54634.27044</t>
+          <t>78820.57401</t>
         </is>
       </c>
     </row>
@@ -82624,7 +82624,7 @@
       </c>
       <c r="C4835" t="inlineStr">
         <is>
-          <t>13235.71792</t>
+          <t>728.93073</t>
         </is>
       </c>
     </row>
@@ -82641,7 +82641,41 @@
       </c>
       <c r="C4836" t="inlineStr">
         <is>
-          <t>14787.76641</t>
+          <t>18576.84797</t>
+        </is>
+      </c>
+    </row>
+    <row r="4837">
+      <c r="A4837" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="B4837" t="inlineStr">
+        <is>
+          <t>1754265600</t>
+        </is>
+      </c>
+      <c r="C4837" t="inlineStr">
+        <is>
+          <t>44516.94556</t>
+        </is>
+      </c>
+    </row>
+    <row r="4838">
+      <c r="A4838" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="B4838" t="inlineStr">
+        <is>
+          <t>1754352000</t>
+        </is>
+      </c>
+      <c r="C4838" t="inlineStr">
+        <is>
+          <t>31530.01969</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4838"/>
+  <dimension ref="A1:C4839"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82641,7 +82641,7 @@
       </c>
       <c r="C4836" t="inlineStr">
         <is>
-          <t>18576.84797</t>
+          <t>793.04443</t>
         </is>
       </c>
     </row>
@@ -82676,6 +82676,23 @@
       <c r="C4838" t="inlineStr">
         <is>
           <t>31530.01969</t>
+        </is>
+      </c>
+    </row>
+    <row r="4839">
+      <c r="A4839" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="B4839" t="inlineStr">
+        <is>
+          <t>1754438400</t>
+        </is>
+      </c>
+      <c r="C4839" t="inlineStr">
+        <is>
+          <t>27766.88280</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4839"/>
+  <dimension ref="A1:C4840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82696,6 +82696,23 @@
         </is>
       </c>
     </row>
+    <row r="4840">
+      <c r="A4840" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="B4840" t="inlineStr">
+        <is>
+          <t>1754524800</t>
+        </is>
+      </c>
+      <c r="C4840" t="inlineStr">
+        <is>
+          <t>27062.72357</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4840"/>
+  <dimension ref="A1:C4841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82658,7 +82658,7 @@
       </c>
       <c r="C4837" t="inlineStr">
         <is>
-          <t>44516.94556</t>
+          <t>447.79375</t>
         </is>
       </c>
     </row>
@@ -82675,7 +82675,7 @@
       </c>
       <c r="C4838" t="inlineStr">
         <is>
-          <t>31530.01969</t>
+          <t>452.15420</t>
         </is>
       </c>
     </row>
@@ -82710,6 +82710,23 @@
       <c r="C4840" t="inlineStr">
         <is>
           <t>27062.72357</t>
+        </is>
+      </c>
+    </row>
+    <row r="4841">
+      <c r="A4841" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B4841" t="inlineStr">
+        <is>
+          <t>1754611200</t>
+        </is>
+      </c>
+      <c r="C4841" t="inlineStr">
+        <is>
+          <t>36544.68604</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4841"/>
+  <dimension ref="A1:C4843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82692,7 +82692,7 @@
       </c>
       <c r="C4839" t="inlineStr">
         <is>
-          <t>27766.88280</t>
+          <t>289.18043</t>
         </is>
       </c>
     </row>
@@ -82709,7 +82709,7 @@
       </c>
       <c r="C4840" t="inlineStr">
         <is>
-          <t>27062.72357</t>
+          <t>608.34902</t>
         </is>
       </c>
     </row>
@@ -82727,6 +82727,40 @@
       <c r="C4841" t="inlineStr">
         <is>
           <t>36544.68604</t>
+        </is>
+      </c>
+    </row>
+    <row r="4842">
+      <c r="A4842" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B4842" t="inlineStr">
+        <is>
+          <t>1754697600</t>
+        </is>
+      </c>
+      <c r="C4842" t="inlineStr">
+        <is>
+          <t>12515.47382</t>
+        </is>
+      </c>
+    </row>
+    <row r="4843">
+      <c r="A4843" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B4843" t="inlineStr">
+        <is>
+          <t>1754784000</t>
+        </is>
+      </c>
+      <c r="C4843" t="inlineStr">
+        <is>
+          <t>15407.06955</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4843"/>
+  <dimension ref="A1:C4844"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82675,7 +82675,7 @@
       </c>
       <c r="C4838" t="inlineStr">
         <is>
-          <t>452.15420</t>
+          <t>35890.06549</t>
         </is>
       </c>
     </row>
@@ -82692,7 +82692,7 @@
       </c>
       <c r="C4839" t="inlineStr">
         <is>
-          <t>289.18043</t>
+          <t>33155.70847</t>
         </is>
       </c>
     </row>
@@ -82709,7 +82709,7 @@
       </c>
       <c r="C4840" t="inlineStr">
         <is>
-          <t>608.34902</t>
+          <t>38486.39019</t>
         </is>
       </c>
     </row>
@@ -82761,6 +82761,23 @@
       <c r="C4843" t="inlineStr">
         <is>
           <t>15407.06955</t>
+        </is>
+      </c>
+    </row>
+    <row r="4844">
+      <c r="A4844" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B4844" t="inlineStr">
+        <is>
+          <t>1754870400</t>
+        </is>
+      </c>
+      <c r="C4844" t="inlineStr">
+        <is>
+          <t>60149.77827</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4844"/>
+  <dimension ref="A1:C4845"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82726,7 +82726,7 @@
       </c>
       <c r="C4841" t="inlineStr">
         <is>
-          <t>36544.68604</t>
+          <t>47680.71610</t>
         </is>
       </c>
     </row>
@@ -82743,7 +82743,7 @@
       </c>
       <c r="C4842" t="inlineStr">
         <is>
-          <t>12515.47382</t>
+          <t>748.48171</t>
         </is>
       </c>
     </row>
@@ -82760,7 +82760,7 @@
       </c>
       <c r="C4843" t="inlineStr">
         <is>
-          <t>15407.06955</t>
+          <t>21527.59569</t>
         </is>
       </c>
     </row>
@@ -82778,6 +82778,23 @@
       <c r="C4844" t="inlineStr">
         <is>
           <t>60149.77827</t>
+        </is>
+      </c>
+    </row>
+    <row r="4845">
+      <c r="A4845" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B4845" t="inlineStr">
+        <is>
+          <t>1754956800</t>
+        </is>
+      </c>
+      <c r="C4845" t="inlineStr">
+        <is>
+          <t>31283.13281</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4845"/>
+  <dimension ref="A1:C4846"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82760,7 +82760,7 @@
       </c>
       <c r="C4843" t="inlineStr">
         <is>
-          <t>21527.59569</t>
+          <t>365.66757</t>
         </is>
       </c>
     </row>
@@ -82794,7 +82794,24 @@
       </c>
       <c r="C4845" t="inlineStr">
         <is>
-          <t>31283.13281</t>
+          <t>31383.14101</t>
+        </is>
+      </c>
+    </row>
+    <row r="4846">
+      <c r="A4846" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B4846" t="inlineStr">
+        <is>
+          <t>1755043200</t>
+        </is>
+      </c>
+      <c r="C4846" t="inlineStr">
+        <is>
+          <t>37289.27423</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_miner_outflows.xlsx
+++ b/data_cripto/btc_miner_outflows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4846"/>
+  <dimension ref="A1:C4847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82777,7 +82777,7 @@
       </c>
       <c r="C4844" t="inlineStr">
         <is>
-          <t>60149.77827</t>
+          <t>250.80255</t>
         </is>
       </c>
     </row>
@@ -82812,6 +82812,23 @@
       <c r="C4846" t="inlineStr">
         <is>
           <t>37289.27423</t>
+        </is>
+      </c>
+    </row>
+    <row r="4847">
+      <c r="A4847" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B4847" t="inlineStr">
+        <is>
+          <t>1755129600</t>
+        </is>
+      </c>
+      <c r="C4847" t="inlineStr">
+        <is>
+          <t>43007.17168</t>
         </is>
       </c>
     </row>
